--- a/public/files/BLANKO_ALUMNI_IKIP.xlsx
+++ b/public/files/BLANKO_ALUMNI_IKIP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP72\htdocs\tsv4\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tsv4\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464AFEC3-F015-41AC-AE17-A5461C77B95D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6004DC19-B123-44A2-B3CE-CE149DD27829}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{E70CB035-0A81-4B13-8071-CF929023DD61}"/>
   </bookViews>
@@ -187,7 +187,91 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -585,7 +669,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +761,9 @@
       <c r="K2">
         <v>5</v>
       </c>
+      <c r="L2">
+        <v>2013</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -842,13 +929,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -859,36 +946,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="notBetween">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="notBetween">
       <formula>1000</formula>
       <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="notBetween">
       <formula>0</formula>
-      <formula>30</formula>
+      <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="notBetween">
       <formula>0</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{895D3EAF-FADF-4300-B741-C7460248D274}">
       <formula1>$N$4:$N$14</formula1>
     </dataValidation>
